--- a/biology/Botanique/Tricholoma_argyraceum/Tricholoma_argyraceum.xlsx
+++ b/biology/Botanique/Tricholoma_argyraceum/Tricholoma_argyraceum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tricholoma argyraceum est une espèce de champignons du genre des Tricholomes. Il a souvent été confondu avec Tricholoma scalpturatum (Tricholome jaunissant).
@@ -512,9 +524,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mycologue français Pierre Bulliard le décrit en 1779 sous le nom Agaricus argyraceus ; Claude-Casimir Gillet transfère l’espèce dans le genre Tricholoma en 1874. Le nom générique est issu du grec trichos (τριχος), « cheveux », et loma (λωμα), « frange » ou « bordure »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mycologue français Pierre Bulliard le décrit en 1779 sous le nom Agaricus argyraceus ; Claude-Casimir Gillet transfère l’espèce dans le genre Tricholoma en 1874. Le nom générique est issu du grec trichos (τριχος), « cheveux », et loma (λωμα), « frange » ou « bordure ».
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chapeau, d'abord conique, s'aplatit en une forme convexe avec l'âge, avec une bosse proéminente en son centre ; mesurant de 1,5  à   6 cm de diamètre, il est couvert d'écailles grisâtres, plus pâles que celles des autres tricholomes à chapeau gris. Les lames, serrées, sont blanches ou gris pâle et ont une odeur et un goût farineux ou rance. Le stipe mesure de 2  à   5 cm de hauteur pour 0,3  à   0,8 cm de largeur, possède une base conique mais pas d'anneau[3].
-Tricholoma pardinum, toxique, est semblable en apparence, mais avec des écailles plus grossières[4] ; Tricholoma scalpturatum lui ressemble aussi, sans avoir de bosse et avec un chapeau plus sombre[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chapeau, d'abord conique, s'aplatit en une forme convexe avec l'âge, avec une bosse proéminente en son centre ; mesurant de 1,5  à   6 cm de diamètre, il est couvert d'écailles grisâtres, plus pâles que celles des autres tricholomes à chapeau gris. Les lames, serrées, sont blanches ou gris pâle et ont une odeur et un goût farineux ou rance. Le stipe mesure de 2  à   5 cm de hauteur pour 0,3  à   0,8 cm de largeur, possède une base conique mais pas d'anneau.
+Tricholoma pardinum, toxique, est semblable en apparence, mais avec des écailles plus grossières ; Tricholoma scalpturatum lui ressemble aussi, sans avoir de bosse et avec un chapeau plus sombre.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tricholoma argyraceum apparaît dans toute l'Europe mais est globalement peu commun.
-Le sporophore apparaît de juin à décembre (occasionnellement plus tôt, au printemps). L'espèce est en association ectomycorhizienne avec bon nombre d'autres espèces : bouleau, charme, chêne et tilleul notamment[3].
+Le sporophore apparaît de juin à décembre (occasionnellement plus tôt, au printemps). L'espèce est en association ectomycorhizienne avec bon nombre d'autres espèces : bouleau, charme, chêne et tilleul notamment.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Comestibilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tricholoma argyraceum est comestible mais possède une faible qualité gustative qui le distingue des autres tricholomes à chapeau gris[5]. Il a d'ailleurs été classé en tant que non comestible[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tricholoma argyraceum est comestible mais possède une faible qualité gustative qui le distingue des autres tricholomes à chapeau gris. Il a d'ailleurs été classé en tant que non comestible.
 </t>
         </is>
       </c>
